--- a/indicators/NO_WAMI_001/metadata.xlsx
+++ b/indicators/NO_WAMI_001/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanno.sandvik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8CF894-3F57-4CF6-96C3-A7C042810C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA9A448-1397-4983-987F-5FC247AF3E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5774BAF6-AFFD-43CB-8AE5-DFBA2C21B702}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="210">
   <si>
     <t>indicatorID</t>
   </si>
@@ -693,9 +693,6 @@
     <t>A2 - Chemical State characteristics</t>
   </si>
   <si>
-    <t>First draft</t>
-  </si>
-  <si>
     <t>Sandvik, H.</t>
   </si>
   <si>
@@ -709,6 +706,12 @@
   </si>
   <si>
     <t>https://github.com/NINAnor/ecRxiv/tree/main/indicators/NO_WAMI_001</t>
+  </si>
+  <si>
+    <t>001.000</t>
+  </si>
+  <si>
+    <t>First complete version</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -848,6 +851,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1169,7 +1173,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>198</v>
@@ -1213,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>200</v>
@@ -1328,7 +1332,7 @@
         <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>166</v>
@@ -1339,8 +1343,8 @@
       <c r="A13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>179</v>
+      <c r="B13" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>179</v>
@@ -1354,7 +1358,7 @@
         <v>168</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>169</v>
@@ -1366,7 +1370,7 @@
         <v>186</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>183</v>
@@ -1380,7 +1384,7 @@
         <v>184</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>188</v>
@@ -1408,7 +1412,7 @@
         <v>195</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>197</v>
